--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1951.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1951.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"payment" + 0.001*"country" + 0.001*"import" + 0.001*"export" + 0.001*"capital" + 0.001*"restriction" + 0.001*"license" + 0.001*"require"</t>
-  </si>
-  <si>
-    <t>0.032*"exchange" + 0.023*"rate" + 0.023*"import" + 0.020*"country" + 0.015*"license" + 0.013*"export" + 0.013*"payment" + 0.012*"require" + 0.012*"restriction" + 0.010*"u"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"country" + 0.001*"import" + 0.001*"license" + 0.001*"require" + 0.001*"restriction" + 0.001*"payment" + 0.001*"export" + 0.001*"fund"</t>
-  </si>
-  <si>
-    <t>0.003*"exchange" + 0.002*"import" + 0.002*"rate" + 0.002*"country" + 0.001*"payment" + 0.001*"export" + 0.001*"fund" + 0.001*"u" + 0.001*"require" + 0.001*"restriction"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.002*"exchange" + 0.002*"rate" + 0.002*"country" + 0.001*"license" + 0.001*"restriction" + 0.001*"export" + 0.001*"u" + 0.001*"payment" + 0.001*"must"</t>
+    <t>0.087*"import" + 0.059*"license" + 0.036*"payment" + 0.036*"exchange" + 0.035*"require" + 0.027*"country" + 0.025*"restriction" + 0.019*"invisibles" + 0.018*"redistribution" + 0.014*"system"</t>
+  </si>
+  <si>
+    <t>0.099*"rate" + 0.034*"exchange" + 0.031*"market" + 0.031*"free" + 0.029*"per" + 0.021*"u" + 0.020*"official" + 0.015*"currency" + 0.014*"buy" + 0.013*"sell"</t>
+  </si>
+  <si>
+    <t>0.046*"export" + 0.038*"capital" + 0.024*"country" + 0.024*"exchange" + 0.023*"dollar" + 0.020*"certain" + 0.020*"may" + 0.018*"currency" + 0.018*"license" + 0.014*"receipt"</t>
+  </si>
+  <si>
+    <t>0.073*"exchange" + 0.046*"surrender" + 0.044*"must" + 0.028*"receipt" + 0.027*"foreign" + 0.024*"import" + 0.022*"export" + 0.014*"authorized" + 0.014*"proceeds" + 0.013*"grant"</t>
+  </si>
+  <si>
+    <t>0.047*"fund" + 0.042*"monetary" + 0.039*"country" + 0.038*"international" + 0.030*"account" + 0.026*"payment" + 0.021*"area" + 0.019*"agreement" + 0.019*"sterling" + 0.019*"capital"</t>
   </si>
 </sst>
 </file>
